--- a/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,51</t>
+          <t>0,99; 4,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,82</t>
+          <t>1,88; 6,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,06</t>
+          <t>0,96; 3,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,41</t>
+          <t>1,09; 3,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,56</t>
+          <t>4,83; 11,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,49</t>
+          <t>1,6; 4,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,47</t>
+          <t>1,28; 2,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,88</t>
+          <t>4,35; 9,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,38</t>
+          <t>1,59; 3,31</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,74</t>
+          <t>0,42; 1,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,11</t>
+          <t>0,99; 3,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,21</t>
+          <t>1,35; 2,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,12</t>
+          <t>0,49; 1,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,28</t>
+          <t>1,51; 3,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,19</t>
+          <t>1,51; 3,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,74</t>
+          <t>0,54; 1,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,98</t>
+          <t>1,53; 3,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,03</t>
+          <t>1,6; 2,68</t>
         </is>
       </c>
     </row>
@@ -852,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,37 +863,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,0</t>
+          <t>0,25; 1,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,16</t>
+          <t>0,49; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,17</t>
+          <t>0,31; 1,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,55</t>
+          <t>0,37; 1,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,57</t>
+          <t>1,4; 4,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,52</t>
+          <t>1,93; 4,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,87</t>
+          <t>0,4; 1,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,51</t>
+          <t>1,13; 2,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,14</t>
+          <t>1,19; 2,84</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,32</t>
+          <t>0,59; 1,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,98</t>
+          <t>1,34; 2,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,22</t>
+          <t>1,14; 2,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,22</t>
+          <t>0,74; 1,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,96</t>
+          <t>2,35; 4,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,24</t>
+          <t>1,92; 3,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,59</t>
+          <t>0,72; 1,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,26</t>
+          <t>2,13; 3,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,11</t>
+          <t>1,73; 2,52</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos antibióticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1786</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9064</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3962</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2450</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28788</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7228</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37852</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11190</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>870; 3559</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4288; 15524</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2073; 6475</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1392; 4121</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19050; 47340</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4383; 11444</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2761; 6290</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27095; 57108</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7775; 16182</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3271</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29002</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33719</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19051</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6909</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62721</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36089</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1924; 5577</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13944; 44829</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11651; 25623</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2097; 5788</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20879; 46887</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13149; 27161</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4793; 10181</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42904; 84533</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27703; 46441</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5530</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2487</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10797</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12684</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16327</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15171</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>375; 2313</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2248; 12169</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1190; 5352</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>724; 2627</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6195; 18099</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8047; 19824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1386; 4200</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10200; 25696</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9504; 22578</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43596</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23486</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7578</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>73303</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13588</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>116900</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>62449</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4087; 8721</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28110; 62251</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16555; 31297</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5588; 10483</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>52325; 96819</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29876; 49194</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10464; 17105</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>92182; 148676</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52133; 75902</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos</t>
+          <t>Consumo de medicamentos antibióticos (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos antibióticos</t>
+          <t>Consumo de medicamentos antibióticos (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,04</t>
+          <t>0,9; 3,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,81</t>
+          <t>2,17; 7,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,23</t>
+          <t>1,31; 3,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,99</t>
+          <t>5,13; 12,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,91</t>
+          <t>1,4; 3,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,17</t>
+          <t>4,43; 9,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,23</t>
+          <t>0,37; 1,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,18</t>
+          <t>1,11; 3,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,34</t>
+          <t>0,55; 1,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,38</t>
+          <t>1,44; 3,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,15</t>
+          <t>0,55; 1,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,02</t>
+          <t>1,55; 3,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,53</t>
+          <t>0,19; 1,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,65</t>
+          <t>0,48; 2,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,35</t>
+          <t>0,35; 1,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,08</t>
+          <t>1,41; 3,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,21</t>
+          <t>0,36; 1,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,85</t>
+          <t>1,11; 2,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,26</t>
+          <t>0,52; 1,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,97</t>
+          <t>1,32; 2,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,39</t>
+          <t>0,77; 1,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,35</t>
+          <t>2,23; 4,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,18</t>
+          <t>0,72; 1,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,44</t>
+          <t>2,07; 3,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4236</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>870; 3559</t>
+          <t>746; 2837</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4288; 15524</t>
+          <t>4941; 16938</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1392; 4121</t>
+          <t>1597; 4528</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19050; 47340</t>
+          <t>20243; 50426</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2761; 6290</t>
+          <t>2851; 6202</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27095; 57108</t>
+          <t>27552; 59288</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>4185</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1924; 5577</t>
+          <t>1692; 4947</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13944; 44829</t>
+          <t>15667; 45677</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2097; 5788</t>
+          <t>2429; 6306</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20879; 46887</t>
+          <t>19937; 47154</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4793; 10181</t>
+          <t>4973; 10620</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42904; 84533</t>
+          <t>43264; 86187</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2654</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>375; 2313</t>
+          <t>333; 2437</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2248; 12169</t>
+          <t>2206; 12112</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>724; 2627</t>
+          <t>792; 2736</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6195; 18099</t>
+          <t>6257; 17109</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1386; 4200</t>
+          <t>1465; 4371</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10200; 25696</t>
+          <t>10016; 24762</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>8453</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13588</t>
+          <t>13960</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4087; 8721</t>
+          <t>3713; 7932</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28110; 62251</t>
+          <t>27658; 62525</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5588; 10483</t>
+          <t>6077; 11450</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52325; 96819</t>
+          <t>49659; 93713</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10464; 17105</t>
+          <t>10961; 17406</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>92182; 148676</t>
+          <t>89419; 143271</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANT-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>1,89%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,84%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,19%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,08%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,97; 6,65</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 3,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,9; 3,44</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 7,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 3,0</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>4,47; 8,75</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 4,18</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1,31; 3,73</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 12,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 4,18</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>3,93; 7,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 3,31</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,4; 3,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 9,52</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 3,31</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,63%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,94%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,64; 3,87</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 2,97</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,37; 1,07</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 3,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 2,97</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2,34; 4,09</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 3,13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,55; 1,42</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 3,4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 3,13</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,24; 3,56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 2,68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,55; 1,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 3,08</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 2,68</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,59%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,2%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,66%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,04%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,81%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,44; 2,35</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 1,41</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,19; 1,39</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 1,41</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,86; 5,12</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 4,76</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,35; 1,2</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 3,86</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 4,76</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,36; 3,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 2,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,36; 1,08</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 2,74</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 2,84</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,77%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,61%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,06%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,92%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,6; 3,24</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 2,15</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,52; 1,1</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 2,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 2,15</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,12; 4,61</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 3,16</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,77; 1,44</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 4,21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 3,16</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>2,55; 3,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 2,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,72; 1,15</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 3,32</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 2,52</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>26</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9238</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3962</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1556</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9064</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3962</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>27537</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7228</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2655</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>28788</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7228</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>36775</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11190</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>4211</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>37852</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11190</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5029; 16942</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2073; 6475</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>746; 2837</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4941; 16938</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2073; 6475</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>19329; 37816</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4383; 11444</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1597; 4528</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20243; 50426</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4383; 11444</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>27026; 48800</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7775; 16182</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>2851; 6202</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27552; 59288</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7775; 16182</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>32133</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17038</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2910</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>29002</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17038</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>40067</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19051</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>4185</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>33719</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>19051</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>72200</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36089</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>7096</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>62721</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>36089</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>21092; 49854</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11651; 25623</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1692; 4947</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>15667; 45677</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>11651; 25623</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>29761; 51970</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13149; 27161</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2429; 6306</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>19937; 47154</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>13149; 27161</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>57383; 91050</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27703; 46441</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>4973; 10620</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>43264; 86187</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>27703; 46441</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5470</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2487</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1041</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5530</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2487</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>15398</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12684</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1613</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10797</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>12684</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>20868</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15171</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2654</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>16327</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>15171</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2250; 11977</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1190; 5352</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>333; 2437</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2206; 12112</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1190; 5352</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9208; 25407</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8047; 19824</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>792; 2736</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6257; 17109</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8047; 19824</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>13714; 32200</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9504; 22578</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1465; 4371</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10016; 24762</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9504; 22578</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>76</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>46841</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23486</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>5507</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>43596</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>23486</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>83002</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38963</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8453</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>73303</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>38963</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>129842</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62449</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>13960</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>116900</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>62449</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>32899; 66597</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16555; 31297</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>3713; 7932</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>27658; 62525</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16555; 31297</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>68634; 101336</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>29876; 49194</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6077; 11450</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>49659; 93713</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>29876; 49194</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>108322; 155448</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52133; 75902</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>10961; 17406</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>89419; 143271</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>52133; 75902</t>
         </is>
       </c>
     </row>
